--- a/data/paper/final_analysis/elapsed_time_combinations.xlsx
+++ b/data/paper/final_analysis/elapsed_time_combinations.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -42,16 +43,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,26 +79,26 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -99,16 +106,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -154,13 +156,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -188,13 +190,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -391,229 +393,15 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -653,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -662,15 +450,15 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.83944444444444444</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.9530555555555555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -679,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -688,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.22888888888888889</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.8394444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -705,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -714,24 +502,24 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.18972222222222221</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.2288888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -740,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.65583333333333338</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.1897222222222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
@@ -757,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -766,15 +554,15 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.6558333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -783,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -792,62 +580,62 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.1652777777777778</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.1336111111111111</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>6.3633333333333333</v>
-      </c>
-    </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -861,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -870,15 +658,15 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.3236111111111111</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6.363333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -887,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -896,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.3241666666666669</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6.323611111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -913,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -922,36 +710,36 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>1.324166666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1.286388888888889</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2.9449999999999998</v>
-      </c>
-    </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
@@ -965,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -974,36 +762,36 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>2.945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>3.438333333333333</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.64166666666666661</v>
-      </c>
-    </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1017,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1026,36 +814,36 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.77583333333333337</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.6416666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.99638888888888888</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.7758333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1069,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1078,15 +866,15 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.81416666666666671</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.9963888888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1095,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1104,62 +892,62 @@
         <v>1</v>
       </c>
       <c r="H19">
+        <v>0.8141666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>0.2361111111111111</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>0.1927777777777778</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0.66527777777777775</v>
-      </c>
-    </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1173,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1182,15 +970,15 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.53000000000000003</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.6652777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1199,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1208,62 +996,62 @@
         <v>1</v>
       </c>
       <c r="H23">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>0.1652777777777778</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>0.1308333333333333</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>6.4574999999999996</v>
-      </c>
-    </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1277,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1286,15 +1074,15 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>6.2880555555555553</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>6.4575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1303,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1312,93 +1100,93 @@
         <v>1</v>
       </c>
       <c r="H27">
+        <v>6.288055555555555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>1.309722222222222</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>1.319166666666667</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>3.104166666666667</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>3.6791666666666671</v>
-      </c>
-    </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1407,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1416,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.65888888888888886</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>3.679166666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1433,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1442,67 +1230,67 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.72666666666666668</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.6588888888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
+        <v>0.7266666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>1.080555555555555</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0.94833333333333336</v>
-      </c>
-    </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1511,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1520,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.26250000000000001</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.9483333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1537,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1546,24 +1334,24 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.2625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1572,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.72472222222222227</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1589,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1598,15 +1386,15 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.56527777777777777</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.7247222222222223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1615,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1624,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.19055555555555551</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.5652777777777778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1641,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1650,67 +1438,67 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.14333333333333331</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.1905555555555555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
+        <v>0.1433333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>7.046388888888889</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>7.0652777777777773</v>
-      </c>
-    </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1719,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1728,50 +1516,50 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>7.065277777777777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>1.468333333333333</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>1.4252777777777781</v>
-      </c>
-    </row>
-    <row r="45">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1780,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>3.4505555555555558</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1.425277777777778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1797,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1806,36 +1594,36 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <v>3.450555555555556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>3.806111111111111</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0.68194444444444435</v>
-      </c>
-    </row>
-    <row r="48">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1849,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1858,50 +1646,50 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.76249999999999996</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.6819444444444444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.95083333333333331</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0.7625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1910,41 +1698,41 @@
         <v>0</v>
       </c>
       <c r="H50">
+        <v>0.9508333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>2.044166666666666</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>3.4538888888888888</v>
-      </c>
-    </row>
-    <row r="52">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1953,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1962,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>10.554444444444449</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>3.453888888888889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1979,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1988,36 +1776,36 @@
         <v>0</v>
       </c>
       <c r="H53">
+        <v>10.55444444444445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>17.29666666666667</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>2.2463888888888892</v>
-      </c>
-    </row>
-    <row r="55">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2031,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2040,15 +1828,15 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3.6980555555555559</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>2.246388888888889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>0</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2057,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2066,93 +1854,93 @@
         <v>0</v>
       </c>
       <c r="H56">
+        <v>3.698055555555556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>10.91666666666667</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>18.354166666666671</v>
-      </c>
-    </row>
-    <row r="58">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
+        <v>18.35416666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
         <v>1.912222222222222</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>3.1905555555555551</v>
-      </c>
-    </row>
-    <row r="60">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>0</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2161,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2170,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>9.7572222222222216</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>3.190555555555555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>0</v>
       </c>
@@ -2187,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2196,24 +1984,24 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>16.893333333333331</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>9.757222222222222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>0</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2222,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>2.2713888888888891</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>16.89333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>0</v>
       </c>
@@ -2239,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2248,15 +2036,15 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>3.5813888888888892</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2.271388888888889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>0</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2265,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2274,62 +2062,62 @@
         <v>1</v>
       </c>
       <c r="H64">
+        <v>3.581388888888889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>11.18555555555556</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
         <v>18.33805555555556</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>2.2041666666666671</v>
-      </c>
-    </row>
-    <row r="67">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>0</v>
       </c>
@@ -2343,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2352,15 +2140,15 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>3.6749999999999998</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2.204166666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>0</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2369,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2378,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>11.193888888888891</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>3.675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>0</v>
       </c>
@@ -2395,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2404,24 +2192,24 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>23.227499999999999</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>11.19388888888889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>0</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2430,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>2.9644444444444451</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>23.2275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>0</v>
       </c>
@@ -2444,53 +2232,53 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
+        <v>2.964444444444445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>5.533611111111111</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72">
-        <v>0</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>4.1894444444444447</v>
-      </c>
-    </row>
-    <row r="73">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>0</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2499,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2508,62 +2296,62 @@
         <v>0</v>
       </c>
       <c r="H73">
+        <v>4.189444444444445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>12.85777777777778</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>21.337499999999999</v>
-      </c>
-    </row>
-    <row r="75">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>0</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>4.7922222222222217</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>21.3375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>0</v>
       </c>
@@ -2577,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2586,15 +2374,15 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>7.1097222222222216</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>4.792222222222222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2603,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2612,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>24.406111111111109</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>7.109722222222222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2629,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2638,24 +2426,24 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>35.159722222222221</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>24.40611111111111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>0</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2664,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5.6366666666666658</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>35.15972222222222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>0</v>
       </c>
@@ -2681,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2690,15 +2478,15 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>7.9116666666666671</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>5.636666666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>0</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2707,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2716,13 +2504,36 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>27.968055555555559</v>
+        <v>7.911666666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>27.96805555555556</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>